--- a/初赛/train-2-virtu.xlsx
+++ b/初赛/train-2-virtu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC39CBD2-FBD7-40D4-9A7E-69D3D05C8CE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7800E94-FCAC-490F-A042-1C40D44C6583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3116,10 +3116,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3181,7 +3181,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{7357F48C-B071-4C32-891C-E4E7FCB647B5}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>add计数</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3224,10 +3224,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3276,7 +3276,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{B78EC624-E5CD-4B03-94BB-884C553EEC1A}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>add计数</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4446,7 +4446,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="5062535" y="95250"/>
-              <a:ext cx="14597065" cy="4314825"/>
+              <a:ext cx="14597065" cy="2076450"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4523,8 +4523,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5205412" y="5219700"/>
-              <a:ext cx="13558838" cy="5295900"/>
+              <a:off x="5205412" y="2505075"/>
+              <a:ext cx="13558838" cy="2924175"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4820,7 +4820,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -4849,7 +4848,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1001</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4900,7 +4899,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -4917,7 +4916,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>766</v>
       </c>
@@ -4951,7 +4950,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>767</v>
       </c>
@@ -4985,7 +4984,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>768</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -5053,7 +5052,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>770</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -5189,7 +5188,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>772</v>
       </c>
@@ -5206,7 +5205,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -5240,7 +5239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>774</v>
       </c>
@@ -5325,7 +5324,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -5342,7 +5341,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>775</v>
       </c>
@@ -5376,7 +5375,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -5461,7 +5460,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>777</v>
       </c>
@@ -5495,7 +5494,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -5546,7 +5545,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -5580,7 +5579,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>778</v>
       </c>
@@ -5614,7 +5613,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -5648,7 +5647,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -5699,7 +5698,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>779</v>
       </c>
@@ -5869,7 +5868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>782</v>
       </c>
@@ -5903,7 +5902,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5920,7 +5919,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -5954,7 +5953,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>46</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -6022,7 +6021,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -6141,7 +6140,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>56</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -6260,7 +6259,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>788</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>59</v>
       </c>
@@ -6328,7 +6327,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>62</v>
       </c>
@@ -6345,7 +6344,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -6430,7 +6429,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>68</v>
       </c>
@@ -6498,7 +6497,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>789</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>74</v>
       </c>
@@ -6583,7 +6582,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>75</v>
       </c>
@@ -6617,7 +6616,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>791</v>
       </c>
@@ -6668,7 +6667,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>77</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>794</v>
       </c>
@@ -6719,7 +6718,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>795</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>797</v>
       </c>
@@ -6804,7 +6803,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>798</v>
       </c>
@@ -6855,7 +6854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>82</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -6991,7 +6990,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>87</v>
       </c>
@@ -7025,7 +7024,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>89</v>
       </c>
@@ -7110,7 +7109,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>803</v>
       </c>
@@ -7127,7 +7126,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>804</v>
       </c>
@@ -7161,7 +7160,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>806</v>
       </c>
@@ -7178,7 +7177,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>807</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>96</v>
       </c>
@@ -7297,7 +7296,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>97</v>
       </c>
@@ -7314,7 +7313,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>811</v>
       </c>
@@ -7348,7 +7347,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>98</v>
       </c>
@@ -7365,7 +7364,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -7399,7 +7398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>101</v>
       </c>
@@ -7484,7 +7483,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>106</v>
       </c>
@@ -7535,7 +7534,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>108</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>109</v>
       </c>
@@ -7586,7 +7585,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>111</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>112</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>814</v>
       </c>
@@ -7637,7 +7636,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>815</v>
       </c>
@@ -7688,7 +7687,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>818</v>
       </c>
@@ -7722,7 +7721,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>113</v>
       </c>
@@ -7739,7 +7738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>114</v>
       </c>
@@ -7756,7 +7755,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>115</v>
       </c>
@@ -7892,7 +7891,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>121</v>
       </c>
@@ -7943,7 +7942,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>822</v>
       </c>
@@ -7960,7 +7959,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>124</v>
       </c>
@@ -7977,7 +7976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>125</v>
       </c>
@@ -7994,7 +7993,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>823</v>
       </c>
@@ -8028,7 +8027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -8062,7 +8061,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>128</v>
       </c>
@@ -8079,7 +8078,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>825</v>
       </c>
@@ -8147,7 +8146,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>131</v>
       </c>
@@ -8181,7 +8180,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>133</v>
       </c>
@@ -8232,7 +8231,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>136</v>
       </c>
@@ -8266,7 +8265,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>138</v>
       </c>
@@ -8300,7 +8299,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>827</v>
       </c>
@@ -8317,7 +8316,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>140</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>142</v>
       </c>
@@ -8402,7 +8401,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>143</v>
       </c>
@@ -8436,7 +8435,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>145</v>
       </c>
@@ -8555,7 +8554,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>150</v>
       </c>
@@ -8572,7 +8571,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>151</v>
       </c>
@@ -8606,7 +8605,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>153</v>
       </c>
@@ -8640,7 +8639,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>155</v>
       </c>
@@ -8657,7 +8656,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>832</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>156</v>
       </c>
@@ -8708,7 +8707,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>158</v>
       </c>
@@ -8742,7 +8741,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>160</v>
       </c>
@@ -8776,7 +8775,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>162</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>163</v>
       </c>
@@ -8827,7 +8826,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>165</v>
       </c>
@@ -8844,7 +8843,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>166</v>
       </c>
@@ -8878,7 +8877,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>168</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>170</v>
       </c>
@@ -8963,7 +8962,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>171</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>175</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>835</v>
       </c>
@@ -9065,7 +9064,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>836</v>
       </c>
@@ -9133,7 +9132,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>178</v>
       </c>
@@ -9167,7 +9166,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>179</v>
       </c>
@@ -9201,7 +9200,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>181</v>
       </c>
@@ -9405,7 +9404,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>191</v>
       </c>
@@ -9439,7 +9438,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>193</v>
       </c>
@@ -9456,7 +9455,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>841</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>195</v>
       </c>
@@ -9507,7 +9506,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>196</v>
       </c>
@@ -9558,7 +9557,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>199</v>
       </c>
@@ -9575,7 +9574,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>200</v>
       </c>
@@ -9592,7 +9591,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>201</v>
       </c>
@@ -9643,7 +9642,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>204</v>
       </c>
@@ -9745,7 +9744,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>208</v>
       </c>
@@ -9864,7 +9863,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>212</v>
       </c>
@@ -9915,7 +9914,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>215</v>
       </c>
@@ -9949,7 +9948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>847</v>
       </c>
@@ -9966,7 +9965,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>217</v>
       </c>
@@ -9983,7 +9982,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>218</v>
       </c>
@@ -10000,7 +9999,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>219</v>
       </c>
@@ -10068,7 +10067,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>222</v>
       </c>
@@ -10153,7 +10152,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>225</v>
       </c>
@@ -10187,7 +10186,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>227</v>
       </c>
@@ -10306,7 +10305,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>851</v>
       </c>
@@ -10357,7 +10356,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>235</v>
       </c>
@@ -10374,7 +10373,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>236</v>
       </c>
@@ -10425,7 +10424,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>238</v>
       </c>
@@ -10459,7 +10458,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>240</v>
       </c>
@@ -10510,7 +10509,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>243</v>
       </c>
@@ -10527,7 +10526,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>244</v>
       </c>
@@ -10544,7 +10543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>245</v>
       </c>
@@ -10612,7 +10611,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>856</v>
       </c>
@@ -10663,7 +10662,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>249</v>
       </c>
@@ -10714,7 +10713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>857</v>
       </c>
@@ -10731,7 +10730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>252</v>
       </c>
@@ -10799,7 +10798,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>255</v>
       </c>
@@ -10833,7 +10832,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>257</v>
       </c>
@@ -10867,7 +10866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>259</v>
       </c>
@@ -10901,7 +10900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>261</v>
       </c>
@@ -10935,7 +10934,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>263</v>
       </c>
@@ -10952,7 +10951,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>264</v>
       </c>
@@ -10969,7 +10968,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>859</v>
       </c>
@@ -11037,7 +11036,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>268</v>
       </c>
@@ -11054,7 +11053,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>269</v>
       </c>
@@ -11088,7 +11087,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>271</v>
       </c>
@@ -11139,7 +11138,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>274</v>
       </c>
@@ -11156,7 +11155,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>275</v>
       </c>
@@ -11190,7 +11189,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>277</v>
       </c>
@@ -11207,7 +11206,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>860</v>
       </c>
@@ -11224,7 +11223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>278</v>
       </c>
@@ -11258,7 +11257,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>280</v>
       </c>
@@ -11309,7 +11308,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>282</v>
       </c>
@@ -11326,7 +11325,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>283</v>
       </c>
@@ -11343,7 +11342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>284</v>
       </c>
@@ -11360,7 +11359,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>285</v>
       </c>
@@ -11377,7 +11376,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>862</v>
       </c>
@@ -11394,7 +11393,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>863</v>
       </c>
@@ -11581,7 +11580,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>294</v>
       </c>
@@ -11666,7 +11665,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>299</v>
       </c>
@@ -11683,7 +11682,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>300</v>
       </c>
@@ -11700,7 +11699,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>301</v>
       </c>
@@ -11717,7 +11716,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>302</v>
       </c>
@@ -11870,7 +11869,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>311</v>
       </c>
@@ -11887,7 +11886,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>312</v>
       </c>
@@ -11955,7 +11954,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>316</v>
       </c>
@@ -11972,7 +11971,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>317</v>
       </c>
@@ -12023,7 +12022,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>320</v>
       </c>
@@ -12074,7 +12073,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>323</v>
       </c>
@@ -12108,7 +12107,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>325</v>
       </c>
@@ -12125,7 +12124,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>326</v>
       </c>
@@ -12142,7 +12141,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>327</v>
       </c>
@@ -12244,7 +12243,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>866</v>
       </c>
@@ -12261,7 +12260,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>867</v>
       </c>
@@ -12278,7 +12277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>868</v>
       </c>
@@ -12295,7 +12294,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>869</v>
       </c>
@@ -12329,7 +12328,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>871</v>
       </c>
@@ -12346,7 +12345,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>872</v>
       </c>
@@ -12363,7 +12362,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>873</v>
       </c>
@@ -12380,7 +12379,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>874</v>
       </c>
@@ -12414,7 +12413,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>876</v>
       </c>
@@ -12431,7 +12430,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>877</v>
       </c>
@@ -12448,7 +12447,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>878</v>
       </c>
@@ -12465,7 +12464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>879</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>880</v>
       </c>
@@ -12550,7 +12549,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>335</v>
       </c>
@@ -12567,7 +12566,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>336</v>
       </c>
@@ -12618,7 +12617,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>339</v>
       </c>
@@ -12669,7 +12668,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>342</v>
       </c>
@@ -12703,7 +12702,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>344</v>
       </c>
@@ -12754,7 +12753,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>347</v>
       </c>
@@ -12788,7 +12787,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>349</v>
       </c>
@@ -12822,7 +12821,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>882</v>
       </c>
@@ -12856,7 +12855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>351</v>
       </c>
@@ -12890,7 +12889,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>884</v>
       </c>
@@ -13026,7 +13025,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>887</v>
       </c>
@@ -13094,7 +13093,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>889</v>
       </c>
@@ -13196,7 +13195,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>362</v>
       </c>
@@ -13247,7 +13246,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>364</v>
       </c>
@@ -13264,7 +13263,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>894</v>
       </c>
@@ -13332,7 +13331,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>368</v>
       </c>
@@ -13349,7 +13348,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>895</v>
       </c>
@@ -13451,7 +13450,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>373</v>
       </c>
@@ -13485,7 +13484,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>898</v>
       </c>
@@ -13536,7 +13535,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>375</v>
       </c>
@@ -13655,7 +13654,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>381</v>
       </c>
@@ -13706,7 +13705,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>901</v>
       </c>
@@ -13723,7 +13722,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>902</v>
       </c>
@@ -13757,7 +13756,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>903</v>
       </c>
@@ -13774,7 +13773,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>385</v>
       </c>
@@ -13910,7 +13909,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>391</v>
       </c>
@@ -13927,7 +13926,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>392</v>
       </c>
@@ -14080,7 +14079,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>400</v>
       </c>
@@ -14097,7 +14096,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>401</v>
       </c>
@@ -14148,7 +14147,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>404</v>
       </c>
@@ -14165,7 +14164,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>907</v>
       </c>
@@ -14199,7 +14198,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>406</v>
       </c>
@@ -14335,7 +14334,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>910</v>
       </c>
@@ -14352,7 +14351,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>412</v>
       </c>
@@ -14369,7 +14368,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>413</v>
       </c>
@@ -14437,7 +14436,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>416</v>
       </c>
@@ -14539,7 +14538,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>420</v>
       </c>
@@ -14573,7 +14572,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>914</v>
       </c>
@@ -14641,7 +14640,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>425</v>
       </c>
@@ -14658,7 +14657,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>426</v>
       </c>
@@ -14709,7 +14708,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>916</v>
       </c>
@@ -14726,7 +14725,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>428</v>
       </c>
@@ -14743,7 +14742,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>429</v>
       </c>
@@ -14760,7 +14759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>917</v>
       </c>
@@ -14777,7 +14776,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>430</v>
       </c>
@@ -14828,7 +14827,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>918</v>
       </c>
@@ -14896,7 +14895,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>436</v>
       </c>
@@ -14913,7 +14912,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>437</v>
       </c>
@@ -14998,7 +14997,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>442</v>
       </c>
@@ -15066,7 +15065,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>444</v>
       </c>
@@ -15083,7 +15082,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>445</v>
       </c>
@@ -15100,7 +15099,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>446</v>
       </c>
@@ -15185,7 +15184,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>450</v>
       </c>
@@ -15202,7 +15201,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>451</v>
       </c>
@@ -15236,7 +15235,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>453</v>
       </c>
@@ -15253,7 +15252,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>454</v>
       </c>
@@ -15287,7 +15286,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>455</v>
       </c>
@@ -15338,7 +15337,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>456</v>
       </c>
@@ -15355,7 +15354,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>457</v>
       </c>
@@ -15372,7 +15371,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>458</v>
       </c>
@@ -15389,7 +15388,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>459</v>
       </c>
@@ -15406,7 +15405,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>460</v>
       </c>
@@ -15423,7 +15422,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>461</v>
       </c>
@@ -15440,7 +15439,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>925</v>
       </c>
@@ -15559,7 +15558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>467</v>
       </c>
@@ -15593,7 +15592,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>469</v>
       </c>
@@ -15610,7 +15609,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>470</v>
       </c>
@@ -15746,7 +15745,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>478</v>
       </c>
@@ -15763,7 +15762,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>479</v>
       </c>
@@ -15882,7 +15881,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>928</v>
       </c>
@@ -15916,7 +15915,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>930</v>
       </c>
@@ -15984,7 +15983,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>932</v>
       </c>
@@ -16018,7 +16017,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>933</v>
       </c>
@@ -16137,7 +16136,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>938</v>
       </c>
@@ -16154,7 +16153,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>490</v>
       </c>
@@ -16205,7 +16204,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>493</v>
       </c>
@@ -16273,7 +16272,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>940</v>
       </c>
@@ -16324,7 +16323,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>497</v>
       </c>
@@ -16375,7 +16374,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>500</v>
       </c>
@@ -16392,7 +16391,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>501</v>
       </c>
@@ -16426,7 +16425,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>503</v>
       </c>
@@ -16460,7 +16459,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>505</v>
       </c>
@@ -16477,7 +16476,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>942</v>
       </c>
@@ -16511,7 +16510,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>507</v>
       </c>
@@ -16528,7 +16527,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>508</v>
       </c>
@@ -16579,7 +16578,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>943</v>
       </c>
@@ -16664,7 +16663,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>515</v>
       </c>
@@ -16681,7 +16680,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>516</v>
       </c>
@@ -16698,7 +16697,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>517</v>
       </c>
@@ -16715,7 +16714,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>518</v>
       </c>
@@ -16732,7 +16731,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>519</v>
       </c>
@@ -16749,7 +16748,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>944</v>
       </c>
@@ -16800,7 +16799,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>522</v>
       </c>
@@ -16817,7 +16816,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>523</v>
       </c>
@@ -16834,7 +16833,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>524</v>
       </c>
@@ -16851,7 +16850,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>525</v>
       </c>
@@ -16953,7 +16952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>531</v>
       </c>
@@ -16970,7 +16969,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>532</v>
       </c>
@@ -17004,7 +17003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>534</v>
       </c>
@@ -17021,7 +17020,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>535</v>
       </c>
@@ -17038,7 +17037,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>536</v>
       </c>
@@ -17089,7 +17088,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>539</v>
       </c>
@@ -17106,7 +17105,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>540</v>
       </c>
@@ -17191,7 +17190,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>545</v>
       </c>
@@ -17276,7 +17275,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>550</v>
       </c>
@@ -17395,7 +17394,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>555</v>
       </c>
@@ -17412,7 +17411,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>556</v>
       </c>
@@ -17497,7 +17496,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>561</v>
       </c>
@@ -17514,7 +17513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>562</v>
       </c>
@@ -17531,7 +17530,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>563</v>
       </c>
@@ -17582,7 +17581,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>566</v>
       </c>
@@ -17633,7 +17632,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>569</v>
       </c>
@@ -17667,7 +17666,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>570</v>
       </c>
@@ -17684,7 +17683,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>948</v>
       </c>
@@ -17701,7 +17700,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>571</v>
       </c>
@@ -17718,7 +17717,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>949</v>
       </c>
@@ -17752,7 +17751,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>573</v>
       </c>
@@ -17769,7 +17768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>574</v>
       </c>
@@ -17803,7 +17802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>950</v>
       </c>
@@ -17837,7 +17836,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>577</v>
       </c>
@@ -17854,7 +17853,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>578</v>
       </c>
@@ -17922,7 +17921,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>582</v>
       </c>
@@ -17956,7 +17955,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>951</v>
       </c>
@@ -18007,7 +18006,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>586</v>
       </c>
@@ -18024,7 +18023,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>587</v>
       </c>
@@ -18041,7 +18040,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>588</v>
       </c>
@@ -18058,7 +18057,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>589</v>
       </c>
@@ -18092,7 +18091,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>591</v>
       </c>
@@ -18126,7 +18125,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>593</v>
       </c>
@@ -18160,7 +18159,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>595</v>
       </c>
@@ -18245,7 +18244,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>600</v>
       </c>
@@ -18262,7 +18261,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>601</v>
       </c>
@@ -18296,7 +18295,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>603</v>
       </c>
@@ -18347,7 +18346,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>606</v>
       </c>
@@ -18381,7 +18380,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>608</v>
       </c>
@@ -18398,7 +18397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>609</v>
       </c>
@@ -18466,7 +18465,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>953</v>
       </c>
@@ -18500,7 +18499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>955</v>
       </c>
@@ -18517,7 +18516,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>956</v>
       </c>
@@ -18585,7 +18584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>612</v>
       </c>
@@ -18602,7 +18601,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>960</v>
       </c>
@@ -18619,7 +18618,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>613</v>
       </c>
@@ -18653,7 +18652,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>614</v>
       </c>
@@ -18670,7 +18669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>615</v>
       </c>
@@ -18687,7 +18686,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>616</v>
       </c>
@@ -18704,7 +18703,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>962</v>
       </c>
@@ -18721,7 +18720,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>617</v>
       </c>
@@ -18755,7 +18754,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>963</v>
       </c>
@@ -18806,7 +18805,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>620</v>
       </c>
@@ -18823,7 +18822,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>621</v>
       </c>
@@ -18840,7 +18839,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>622</v>
       </c>
@@ -18874,7 +18873,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>624</v>
       </c>
@@ -18891,7 +18890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>625</v>
       </c>
@@ -18908,7 +18907,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>965</v>
       </c>
@@ -18925,7 +18924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>966</v>
       </c>
@@ -18942,7 +18941,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>626</v>
       </c>
@@ -19044,7 +19043,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>630</v>
       </c>
@@ -19078,7 +19077,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>632</v>
       </c>
@@ -19146,7 +19145,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>636</v>
       </c>
@@ -19180,7 +19179,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>638</v>
       </c>
@@ -19214,7 +19213,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>640</v>
       </c>
@@ -19350,7 +19349,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>648</v>
       </c>
@@ -19401,7 +19400,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="858" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>651</v>
       </c>
@@ -19469,7 +19468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>972</v>
       </c>
@@ -19537,7 +19536,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>654</v>
       </c>
@@ -19554,7 +19553,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>655</v>
       </c>
@@ -19605,7 +19604,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>658</v>
       </c>
@@ -19622,7 +19621,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="871" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>659</v>
       </c>
@@ -19707,7 +19706,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>664</v>
       </c>
@@ -19758,7 +19757,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="879" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>667</v>
       </c>
@@ -19775,7 +19774,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="880" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>668</v>
       </c>
@@ -19826,7 +19825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="883" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>671</v>
       </c>
@@ -19911,7 +19910,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="888" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>675</v>
       </c>
@@ -19996,7 +19995,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="893" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>679</v>
       </c>
@@ -20013,7 +20012,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="894" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>680</v>
       </c>
@@ -20047,7 +20046,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="896" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>976</v>
       </c>
@@ -20064,7 +20063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="897" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>682</v>
       </c>
@@ -20081,7 +20080,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="898" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>683</v>
       </c>
@@ -20132,7 +20131,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="901" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>685</v>
       </c>
@@ -20166,7 +20165,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="903" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>687</v>
       </c>
@@ -20251,7 +20250,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="908" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>692</v>
       </c>
@@ -20370,7 +20369,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="915" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>699</v>
       </c>
@@ -20421,7 +20420,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="918" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>702</v>
       </c>
@@ -20438,7 +20437,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="919" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>703</v>
       </c>
@@ -20591,7 +20590,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="928" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>706</v>
       </c>
@@ -20608,7 +20607,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="929" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>707</v>
       </c>
@@ -20625,7 +20624,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="930" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>708</v>
       </c>
@@ -20642,7 +20641,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="931" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>709</v>
       </c>
@@ -20676,7 +20675,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="933" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>984</v>
       </c>
@@ -20693,7 +20692,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="934" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>711</v>
       </c>
@@ -20727,7 +20726,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="936" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>712</v>
       </c>
@@ -20744,7 +20743,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="937" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>713</v>
       </c>
@@ -20761,7 +20760,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="938" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>714</v>
       </c>
@@ -20812,7 +20811,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="941" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>717</v>
       </c>
@@ -21016,7 +21015,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="953" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>986</v>
       </c>
@@ -21033,7 +21032,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="954" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>987</v>
       </c>
@@ -21067,7 +21066,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="956" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>989</v>
       </c>
@@ -21084,7 +21083,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="957" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>990</v>
       </c>
@@ -21152,7 +21151,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="961" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>732</v>
       </c>
@@ -21254,7 +21253,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="967" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>737</v>
       </c>
@@ -21271,7 +21270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="968" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>738</v>
       </c>
@@ -21305,7 +21304,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="970" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>992</v>
       </c>
@@ -21339,7 +21338,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="972" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>741</v>
       </c>
@@ -21373,7 +21372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="974" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>742</v>
       </c>
@@ -21407,7 +21406,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="976" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>744</v>
       </c>
@@ -21424,7 +21423,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="977" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>745</v>
       </c>
@@ -21492,7 +21491,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="981" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>748</v>
       </c>
@@ -21509,7 +21508,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="982" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>749</v>
       </c>
@@ -21526,7 +21525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="983" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>750</v>
       </c>
@@ -21543,7 +21542,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="984" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>751</v>
       </c>
@@ -21594,7 +21593,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="987" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>753</v>
       </c>
@@ -21645,7 +21644,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="990" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>996</v>
       </c>
@@ -21662,7 +21661,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="991" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>756</v>
       </c>
@@ -21696,7 +21695,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="993" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>997</v>
       </c>
@@ -21747,7 +21746,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="996" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>998</v>
       </c>
@@ -21781,7 +21780,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="998" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>760</v>
       </c>
@@ -21850,13 +21849,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1001" xr:uid="{874FD788-79C5-4B4D-A609-637D8DFBF8EB}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E1001" xr:uid="{874FD788-79C5-4B4D-A609-637D8DFBF8EB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
